--- a/out/production/CmdShop/users.xlsx
+++ b/out/production/CmdShop/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4D93D-35C8-463A-BD0F-86BE3BAC8884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3D945-6B64-4A72-A1B1-FE1919E2B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,23 +43,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yuhangyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>libeirong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lbr1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yhy1234</t>
+    <t>yhy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -415,13 +411,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>18377594079</v>
@@ -429,17 +425,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>15778510611</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
